--- a/tasks/AnalyticalCase/output/TopTimeConsumingTasks.xlsx
+++ b/tasks/AnalyticalCase/output/TopTimeConsumingTasks.xlsx
@@ -182,10 +182,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.3515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.17578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.4140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
